--- a/Book.xlsx
+++ b/Book.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29108"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F9DC4F-20C0-4E57-BB61-4E579FAEDED1}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFFAD4FC-98D8-48F5-8532-3788099B873F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>問題文</t>
   </si>
@@ -112,6 +112,27 @@
   </si>
   <si>
     <t>grade</t>
+  </si>
+  <si>
+    <t>suggest</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>nervous</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>nurvous</t>
   </si>
 </sst>
 </file>
@@ -483,101 +504,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>21</v>
       </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
